--- a/03. Planilhas/Catalogo variaveis.xlsx
+++ b/03. Planilhas/Catalogo variaveis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\03. Poli\01. Poli\01. TCC\03. Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\01. Poli\01. Poli\01. TCC\03. Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Opcoes" sheetId="4" r:id="rId2"/>
     <sheet name="SP2020" sheetId="2" r:id="rId3"/>
     <sheet name="Plan1" sheetId="5" r:id="rId4"/>
-    <sheet name="PE2004" sheetId="3" r:id="rId5"/>
+    <sheet name="SP1996" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalogo oficial'!$B$5:$U$169</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="415">
   <si>
     <t>TIPOBITO</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t>Presente</t>
+  </si>
+  <si>
+    <t>Mantida</t>
   </si>
 </sst>
 </file>
@@ -1680,39 +1683,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V169"/>
+  <dimension ref="B2:X169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="64.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="20.44140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="11" width="12.88671875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="3.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="14" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="3.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="11.88671875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.33203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>378</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>309</v>
       </c>
@@ -1742,10 +1745,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="2:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>349</v>
       </c>
@@ -1809,8 +1812,14 @@
       <c r="V5" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f>0</f>
         <v>0</v>
@@ -1856,11 +1865,11 @@
         <v>1</v>
       </c>
       <c r="Q6" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C6,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C6,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R6" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C6,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C6,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S6" s="3">
@@ -1871,8 +1880,12 @@
         <f>IFERROR(O6*S6, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V6" s="11"/>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f>B6+1</f>
         <v>1</v>
@@ -1918,11 +1931,11 @@
         <v>1</v>
       </c>
       <c r="Q7" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C7,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C7,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R7" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C7,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C7,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S7" s="3">
@@ -1933,8 +1946,12 @@
         <f t="shared" ref="U7:U70" si="5">IFERROR(O7*S7, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V7" s="11"/>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B71" si="6">B7+1</f>
         <v>2</v>
@@ -1980,11 +1997,11 @@
         <v>1</v>
       </c>
       <c r="Q8" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C8,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C8,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R8" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C8,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C8,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S8" s="3">
@@ -1995,8 +2012,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="11"/>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -2042,11 +2063,11 @@
         <v>1</v>
       </c>
       <c r="Q9" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C9,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C9,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R9" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C9,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C9,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S9" s="3">
@@ -2057,8 +2078,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V9" s="11"/>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -2104,11 +2129,11 @@
         <v>1</v>
       </c>
       <c r="Q10" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C10,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C10,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R10" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C10,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C10,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S10" s="3">
@@ -2119,8 +2144,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V10" s="11"/>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -2166,11 +2195,11 @@
         <v>1</v>
       </c>
       <c r="Q11" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C11,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C11,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R11" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C11,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C11,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="3">
@@ -2181,8 +2210,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V11" s="11"/>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -2228,11 +2261,11 @@
         <v>1</v>
       </c>
       <c r="Q12" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C12,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C12,'SP1996'!C:C,0),1)</f>
         <v>45180</v>
       </c>
       <c r="R12" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C12,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C12,'SP1996'!C:C,0),1)</f>
         <v>0.84353995519044067</v>
       </c>
       <c r="S12" s="3">
@@ -2243,8 +2276,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V12" s="11"/>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -2290,11 +2327,11 @@
         <v>1</v>
       </c>
       <c r="Q13" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C13,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C13,'SP1996'!C:C,0),1)</f>
         <v>52812</v>
       </c>
       <c r="R13" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C13,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C13,'SP1996'!C:C,0),1)</f>
         <v>0.98603435399551909</v>
       </c>
       <c r="S13" s="3">
@@ -2305,8 +2342,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V13" s="11"/>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -2352,11 +2393,11 @@
         <v>1</v>
       </c>
       <c r="Q14" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C14,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C14,'SP1996'!C:C,0),1)</f>
         <v>52809</v>
       </c>
       <c r="R14" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C14,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C14,'SP1996'!C:C,0),1)</f>
         <v>0.98597834204630319</v>
       </c>
       <c r="S14" s="3">
@@ -2367,8 +2408,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="11"/>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -2414,11 +2459,11 @@
         <v>1</v>
       </c>
       <c r="Q15" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C15,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C15,'SP1996'!C:C,0),1)</f>
         <v>52809</v>
       </c>
       <c r="R15" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C15,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C15,'SP1996'!C:C,0),1)</f>
         <v>0.98597834204630319</v>
       </c>
       <c r="S15" s="3">
@@ -2429,8 +2474,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V15" s="11"/>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -2476,11 +2525,11 @@
         <v>1</v>
       </c>
       <c r="Q16" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C16,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C16,'SP1996'!C:C,0),1)</f>
         <v>52812</v>
       </c>
       <c r="R16" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C16,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C16,'SP1996'!C:C,0),1)</f>
         <v>0.98603435399551909</v>
       </c>
       <c r="S16" s="3">
@@ -2491,8 +2540,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V16" s="11"/>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -2538,11 +2591,11 @@
         <v>1</v>
       </c>
       <c r="Q17" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C17,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C17,'SP1996'!C:C,0),1)</f>
         <v>52809</v>
       </c>
       <c r="R17" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C17,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C17,'SP1996'!C:C,0),1)</f>
         <v>0.98597834204630319</v>
       </c>
       <c r="S17" s="3">
@@ -2553,8 +2606,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" ht="132" x14ac:dyDescent="0.25">
+      <c r="V17" s="11"/>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="132" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -2600,11 +2657,11 @@
         <v>1</v>
       </c>
       <c r="Q18" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C18,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C18,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R18" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C18,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C18,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S18" s="3">
@@ -2615,8 +2672,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="11"/>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -2662,11 +2723,11 @@
         <v>1</v>
       </c>
       <c r="Q19" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C19,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C19,'SP1996'!C:C,0),1)</f>
         <v>53476</v>
       </c>
       <c r="R19" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C19,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C19,'SP1996'!C:C,0),1)</f>
         <v>0.99843166542195672</v>
       </c>
       <c r="S19" s="3">
@@ -2677,8 +2738,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="11"/>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -2724,11 +2789,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C20,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C20,'SP1996'!C:C,0),1)</f>
         <v>1347</v>
       </c>
       <c r="R20" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C20,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C20,'SP1996'!C:C,0),1)</f>
         <v>2.5149365197908887E-2</v>
       </c>
       <c r="S20" s="3">
@@ -2742,8 +2807,11 @@
       <c r="V20" s="11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -2789,11 +2857,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C21,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C21,'SP1996'!C:C,0),1)</f>
         <v>1149</v>
       </c>
       <c r="R21" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C21,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C21,'SP1996'!C:C,0),1)</f>
         <v>2.145257654966393E-2</v>
       </c>
       <c r="S21" s="3">
@@ -2807,8 +2875,11 @@
       <c r="V21" s="11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -2854,11 +2925,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C22,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C22,'SP1996'!C:C,0),1)</f>
         <v>689</v>
       </c>
       <c r="R22" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C22,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C22,'SP1996'!C:C,0),1)</f>
         <v>1.2864077669902912E-2</v>
       </c>
       <c r="S22" s="3">
@@ -2872,8 +2943,11 @@
       <c r="V22" s="11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -2919,11 +2993,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C23,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C23,'SP1996'!C:C,0),1)</f>
         <v>210</v>
       </c>
       <c r="R23" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C23,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C23,'SP1996'!C:C,0),1)</f>
         <v>3.9208364451082901E-3</v>
       </c>
       <c r="S23" s="3">
@@ -2937,8 +3011,11 @@
       <c r="V23" s="11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -2984,11 +3061,11 @@
         <v>1</v>
       </c>
       <c r="Q24" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C24,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C24,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R24" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C24,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C24,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S24" s="3">
@@ -2999,8 +3076,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V24" s="11"/>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -3046,11 +3127,11 @@
         <v>1</v>
       </c>
       <c r="Q25" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C25,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C25,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R25" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C25,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C25,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S25" s="3">
@@ -3061,8 +3142,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V25" s="11"/>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -3108,11 +3193,11 @@
         <v>1</v>
       </c>
       <c r="Q26" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C26,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C26,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R26" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C26,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C26,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S26" s="3">
@@ -3123,8 +3208,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V26" s="11"/>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -3170,11 +3259,11 @@
         <v>1</v>
       </c>
       <c r="Q27" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C27,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C27,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R27" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C27,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C27,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S27" s="3">
@@ -3185,8 +3274,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V27" s="11"/>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -3232,11 +3325,11 @@
         <v>1</v>
       </c>
       <c r="Q28" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C28,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C28,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R28" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C28,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C28,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S28" s="3">
@@ -3247,8 +3340,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V28" s="11"/>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -3294,11 +3391,11 @@
         <v>1</v>
       </c>
       <c r="Q29" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C29,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C29,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R29" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C29,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C29,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S29" s="3">
@@ -3309,8 +3406,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V29" s="11"/>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -3356,11 +3457,11 @@
         <v>1</v>
       </c>
       <c r="Q30" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C30,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C30,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R30" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C30,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C30,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S30" s="3">
@@ -3371,8 +3472,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V30" s="11"/>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -3418,11 +3523,11 @@
         <v>1</v>
       </c>
       <c r="Q31" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C31,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C31,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R31" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C31,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C31,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S31" s="3">
@@ -3433,8 +3538,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V31" s="11"/>
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -3480,11 +3589,11 @@
         <v>1</v>
       </c>
       <c r="Q32" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C32,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C32,'SP1996'!C:C,0),1)</f>
         <v>43852</v>
       </c>
       <c r="R32" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C32,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C32,'SP1996'!C:C,0),1)</f>
         <v>0.8187453323375653</v>
       </c>
       <c r="S32" s="3">
@@ -3495,8 +3604,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V32" s="11"/>
+      <c r="X32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -3542,11 +3655,11 @@
         <v>1</v>
       </c>
       <c r="Q33" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C33,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C33,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R33" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C33,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C33,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S33" s="3">
@@ -3557,8 +3670,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V33" s="11"/>
+      <c r="X33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -3604,11 +3721,11 @@
         <v>1</v>
       </c>
       <c r="Q34" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C34,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C34,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R34" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C34,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C34,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S34" s="3">
@@ -3619,8 +3736,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V34" s="11"/>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -3666,11 +3787,11 @@
         <v>1</v>
       </c>
       <c r="Q35" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C35,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C35,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R35" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C35,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C35,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S35" s="3">
@@ -3681,8 +3802,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V35" s="11"/>
+      <c r="X35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -3728,11 +3853,11 @@
         <v>1</v>
       </c>
       <c r="Q36" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C36,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C36,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R36" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C36,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C36,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S36" s="3">
@@ -3743,8 +3868,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V36" s="11"/>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -3790,11 +3919,11 @@
         <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C37,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C37,'SP1996'!C:C,0),1)</f>
         <v>2764</v>
       </c>
       <c r="R37" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C37,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C37,'SP1996'!C:C,0),1)</f>
         <v>5.1605675877520539E-2</v>
       </c>
       <c r="S37" s="3">
@@ -3805,11 +3934,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="X37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -3855,11 +3987,11 @@
         <v>1</v>
       </c>
       <c r="Q38" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C38,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C38,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R38" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C38,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C38,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S38" s="3">
@@ -3870,8 +4002,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V38" s="11"/>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <f t="shared" si="6"/>
         <v>33</v>
@@ -3917,11 +4053,11 @@
         <v>1</v>
       </c>
       <c r="Q39" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C39,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C39,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R39" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C39,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C39,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S39" s="3">
@@ -3932,8 +4068,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V39" s="11"/>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <f t="shared" si="6"/>
         <v>34</v>
@@ -3979,11 +4119,11 @@
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C40,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C40,'SP1996'!C:C,0),1)</f>
         <v>2447</v>
       </c>
       <c r="R40" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C40,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C40,'SP1996'!C:C,0),1)</f>
         <v>4.568707991038088E-2</v>
       </c>
       <c r="S40" s="3">
@@ -3994,11 +4134,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -4044,11 +4187,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C41,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C41,'SP1996'!C:C,0),1)</f>
         <v>2615</v>
       </c>
       <c r="R41" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C41,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C41,'SP1996'!C:C,0),1)</f>
         <v>4.8823749066467512E-2</v>
       </c>
       <c r="S41" s="3">
@@ -4059,11 +4202,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="V41" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <f t="shared" si="6"/>
         <v>36</v>
@@ -4109,11 +4255,11 @@
         <v>0</v>
       </c>
       <c r="Q42" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C42,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C42,'SP1996'!C:C,0),1)</f>
         <v>2436</v>
       </c>
       <c r="R42" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C42,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C42,'SP1996'!C:C,0),1)</f>
         <v>4.5481702763256159E-2</v>
       </c>
       <c r="S42" s="3">
@@ -4124,11 +4270,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="X42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <f t="shared" si="6"/>
         <v>37</v>
@@ -4174,11 +4323,11 @@
         <v>1</v>
       </c>
       <c r="Q43" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C43,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C43,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R43" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C43,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C43,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S43" s="3">
@@ -4189,8 +4338,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V43" s="11"/>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <f t="shared" si="6"/>
         <v>38</v>
@@ -4236,11 +4389,11 @@
         <v>1</v>
       </c>
       <c r="Q44" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C44,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C44,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R44" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C44,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C44,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S44" s="3">
@@ -4251,8 +4404,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V44" s="11"/>
+      <c r="X44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <f t="shared" si="6"/>
         <v>39</v>
@@ -4298,11 +4455,11 @@
         <v>1</v>
       </c>
       <c r="Q45" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C45,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C45,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R45" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C45,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C45,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S45" s="3">
@@ -4313,8 +4470,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V45" s="11"/>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -4360,11 +4521,11 @@
         <v>1</v>
       </c>
       <c r="Q46" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C46,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C46,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R46" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C46,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C46,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S46" s="3">
@@ -4375,8 +4536,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V46" s="11"/>
+      <c r="X46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <f t="shared" si="6"/>
         <v>41</v>
@@ -4422,11 +4587,11 @@
         <v>1</v>
       </c>
       <c r="Q47" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C47,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C47,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R47" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C47,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C47,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S47" s="3">
@@ -4437,8 +4602,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V47" s="11"/>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <f t="shared" si="6"/>
         <v>42</v>
@@ -4484,11 +4653,11 @@
         <v>1</v>
       </c>
       <c r="Q48" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C48,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C48,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R48" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C48,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C48,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S48" s="3">
@@ -4499,8 +4668,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V48" s="11"/>
+      <c r="X48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f t="shared" si="6"/>
         <v>43</v>
@@ -4546,11 +4719,11 @@
         <v>1</v>
       </c>
       <c r="Q49" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C49,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C49,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R49" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C49,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C49,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S49" s="3">
@@ -4561,8 +4734,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V49" s="11"/>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" si="6"/>
         <v>44</v>
@@ -4608,11 +4785,11 @@
         <v>1</v>
       </c>
       <c r="Q50" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C50,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C50,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R50" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C50,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C50,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S50" s="3">
@@ -4623,8 +4800,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V50" s="11"/>
+      <c r="X50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -4670,11 +4851,11 @@
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C51,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C51,'SP1996'!C:C,0),1)</f>
         <v>2717</v>
       </c>
       <c r="R51" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C51,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C51,'SP1996'!C:C,0),1)</f>
         <v>5.0728155339805826E-2</v>
       </c>
       <c r="S51" s="3">
@@ -4685,11 +4866,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="V51" s="11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="6"/>
         <v>46</v>
@@ -4735,11 +4919,11 @@
         <v>1</v>
       </c>
       <c r="Q52" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C52,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C52,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R52" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C52,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C52,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S52" s="3">
@@ -4750,8 +4934,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V52" s="11"/>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" si="6"/>
         <v>47</v>
@@ -4797,11 +4985,11 @@
         <v>1</v>
       </c>
       <c r="Q53" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C53,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C53,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R53" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C53,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C53,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S53" s="3">
@@ -4812,8 +5000,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V53" s="11"/>
+      <c r="X53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <f t="shared" si="6"/>
         <v>48</v>
@@ -4859,11 +5051,11 @@
         <v>1</v>
       </c>
       <c r="Q54" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C54,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C54,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R54" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C54,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C54,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S54" s="3">
@@ -4874,8 +5066,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V54" s="11"/>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <f t="shared" si="6"/>
         <v>49</v>
@@ -4921,11 +5117,11 @@
         <v>1</v>
       </c>
       <c r="Q55" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C55,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C55,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R55" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C55,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C55,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S55" s="3">
@@ -4936,8 +5132,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V55" s="11"/>
+      <c r="X55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -4983,11 +5183,11 @@
         <v>1</v>
       </c>
       <c r="Q56" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C56,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C56,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R56" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C56,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C56,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S56" s="3">
@@ -4998,8 +5198,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V56" s="11"/>
+      <c r="X56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <f t="shared" si="6"/>
         <v>51</v>
@@ -5045,11 +5249,11 @@
         <v>1</v>
       </c>
       <c r="Q57" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C57,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C57,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R57" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C57,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C57,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S57" s="3">
@@ -5060,8 +5264,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V57" s="11"/>
+      <c r="X57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <f t="shared" si="6"/>
         <v>52</v>
@@ -5107,11 +5315,11 @@
         <v>1</v>
       </c>
       <c r="Q58" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C58,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C58,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R58" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C58,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C58,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S58" s="3">
@@ -5122,8 +5330,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V58" s="11"/>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <f t="shared" si="6"/>
         <v>53</v>
@@ -5169,11 +5381,11 @@
         <v>1</v>
       </c>
       <c r="Q59" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C59,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C59,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R59" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C59,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C59,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S59" s="3">
@@ -5184,8 +5396,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V59" s="11"/>
+      <c r="X59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <f t="shared" si="6"/>
         <v>54</v>
@@ -5231,11 +5447,11 @@
         <v>1</v>
       </c>
       <c r="Q60" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C60,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C60,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R60" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C60,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C60,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S60" s="3">
@@ -5246,8 +5462,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V60" s="11"/>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -5293,11 +5513,11 @@
         <v>1</v>
       </c>
       <c r="Q61" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C61,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C61,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R61" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C61,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C61,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S61" s="3">
@@ -5308,8 +5528,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V61" s="11"/>
+      <c r="X61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <f t="shared" si="6"/>
         <v>56</v>
@@ -5355,11 +5579,11 @@
         <v>1</v>
       </c>
       <c r="Q62" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C62,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C62,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R62" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C62,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C62,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S62" s="3">
@@ -5370,8 +5594,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V62" s="11"/>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <f t="shared" si="6"/>
         <v>57</v>
@@ -5417,11 +5645,11 @@
         <v>1</v>
       </c>
       <c r="Q63" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C63,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C63,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R63" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C63,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C63,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S63" s="3">
@@ -5432,8 +5660,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:22" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V63" s="11"/>
+      <c r="X63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <f t="shared" si="6"/>
         <v>58</v>
@@ -5479,11 +5711,11 @@
         <v>1</v>
       </c>
       <c r="Q64" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C64,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C64,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R64" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C64,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C64,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S64" s="3">
@@ -5494,8 +5726,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V64" s="11"/>
+      <c r="X64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <f t="shared" si="6"/>
         <v>59</v>
@@ -5541,11 +5777,11 @@
         <v>1</v>
       </c>
       <c r="Q65" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C65,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C65,'SP1996'!C:C,0),1)</f>
         <v>52608</v>
       </c>
       <c r="R65" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C65,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C65,'SP1996'!C:C,0),1)</f>
         <v>0.98222554144884244</v>
       </c>
       <c r="S65" s="3">
@@ -5556,8 +5792,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V65" s="11"/>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -5603,11 +5843,11 @@
         <v>1</v>
       </c>
       <c r="Q66" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C66,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C66,'SP1996'!C:C,0),1)</f>
         <v>39283</v>
       </c>
       <c r="R66" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C66,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C66,'SP1996'!C:C,0),1)</f>
         <v>0.7334391336818521</v>
       </c>
       <c r="S66" s="3">
@@ -5618,8 +5858,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V66" s="11"/>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <f t="shared" si="6"/>
         <v>61</v>
@@ -5665,11 +5909,11 @@
         <v>0</v>
       </c>
       <c r="Q67" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C67,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C67,'SP1996'!C:C,0),1)</f>
         <v>26930</v>
       </c>
       <c r="R67" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C67,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C67,'SP1996'!C:C,0),1)</f>
         <v>0.50280059746079164</v>
       </c>
       <c r="S67" s="3">
@@ -5680,8 +5924,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V67" s="11"/>
+      <c r="X67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -5727,11 +5975,11 @@
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C68,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C68,'SP1996'!C:C,0),1)</f>
         <v>12945</v>
       </c>
       <c r="R68" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C68,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C68,'SP1996'!C:C,0),1)</f>
         <v>0.24169156086631816</v>
       </c>
       <c r="S68" s="3">
@@ -5742,8 +5990,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V68" s="11"/>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -5789,11 +6041,11 @@
         <v>0</v>
       </c>
       <c r="Q69" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C69,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C69,'SP1996'!C:C,0),1)</f>
         <v>13414</v>
       </c>
       <c r="R69" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C69,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C69,'SP1996'!C:C,0),1)</f>
         <v>0.25044809559372666</v>
       </c>
       <c r="S69" s="3">
@@ -5804,8 +6056,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V69" s="11"/>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -5851,11 +6107,11 @@
         <v>1</v>
       </c>
       <c r="Q70" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C70,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C70,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R70" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C70,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C70,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S70" s="3">
@@ -5866,8 +6122,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V70" s="11"/>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -5913,11 +6173,11 @@
         <v>1</v>
       </c>
       <c r="Q71" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C71,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C71,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R71" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C71,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C71,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S71" s="3">
@@ -5928,8 +6188,12 @@
         <f t="shared" ref="U71:U134" si="12">IFERROR(O71*S71, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V71" s="11"/>
+      <c r="X71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <f t="shared" ref="B72:B135" si="13">B71+1</f>
         <v>66</v>
@@ -5975,11 +6239,11 @@
         <v>1</v>
       </c>
       <c r="Q72" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C72,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C72,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R72" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C72,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C72,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S72" s="3">
@@ -5990,8 +6254,12 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V72" s="11"/>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <f t="shared" si="13"/>
         <v>67</v>
@@ -6037,11 +6305,11 @@
         <v>1</v>
       </c>
       <c r="Q73" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C73,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C73,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R73" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C73,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C73,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S73" s="3">
@@ -6052,8 +6320,12 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V73" s="11"/>
+      <c r="X73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <f t="shared" si="13"/>
         <v>68</v>
@@ -6099,11 +6371,11 @@
         <v>1</v>
       </c>
       <c r="Q74" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C74,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C74,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R74" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C74,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C74,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S74" s="3">
@@ -6114,8 +6386,12 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V74" s="11"/>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <f t="shared" si="13"/>
         <v>69</v>
@@ -6161,11 +6437,11 @@
         <v>1</v>
       </c>
       <c r="Q75" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C75,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C75,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R75" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C75,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C75,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S75" s="3">
@@ -6176,8 +6452,12 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V75" s="11"/>
+      <c r="X75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <f t="shared" si="13"/>
         <v>70</v>
@@ -6221,11 +6501,11 @@
         <v>1</v>
       </c>
       <c r="Q76" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C76,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C76,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R76" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C76,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C76,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S76" s="3" t="e">
@@ -6236,8 +6516,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V76" s="11"/>
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <f t="shared" si="13"/>
         <v>71</v>
@@ -6283,11 +6565,11 @@
         <v>1</v>
       </c>
       <c r="Q77" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C77,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C77,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R77" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C77,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C77,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S77" s="3" t="e">
@@ -6298,8 +6580,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V77" s="11"/>
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <f t="shared" si="13"/>
         <v>72</v>
@@ -6345,11 +6629,11 @@
         <v>1</v>
       </c>
       <c r="Q78" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C78,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C78,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R78" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C78,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C78,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S78" s="3" t="e">
@@ -6360,8 +6644,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V78" s="11"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <f t="shared" si="13"/>
         <v>73</v>
@@ -6407,11 +6693,11 @@
         <v>1</v>
       </c>
       <c r="Q79" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C79,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C79,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R79" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C79,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C79,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S79" s="3" t="e">
@@ -6422,8 +6708,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V79" s="11"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <f t="shared" si="13"/>
         <v>74</v>
@@ -6469,11 +6757,11 @@
         <v>0</v>
       </c>
       <c r="Q80" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C80,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C80,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R80" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C80,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C80,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S80" s="3" t="e">
@@ -6484,8 +6772,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="11"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -6531,11 +6821,11 @@
         <v>1</v>
       </c>
       <c r="Q81" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C81,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C81,'SP1996'!C:C,0),1)</f>
         <v>31439</v>
       </c>
       <c r="R81" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C81,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C81,'SP1996'!C:C,0),1)</f>
         <v>0.58698655713218817</v>
       </c>
       <c r="S81" s="3">
@@ -6546,8 +6836,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V81" s="11"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <f t="shared" si="13"/>
         <v>76</v>
@@ -6593,11 +6885,11 @@
         <v>0</v>
       </c>
       <c r="Q82" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C82,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C82,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R82" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C82,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C82,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S82" s="3" t="e">
@@ -6608,8 +6900,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V82" s="11"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <f t="shared" si="13"/>
         <v>77</v>
@@ -6655,11 +6949,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C83,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C83,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R83" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C83,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C83,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S83" s="3" t="e">
@@ -6670,8 +6964,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V83" s="11"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <f t="shared" si="13"/>
         <v>78</v>
@@ -6717,11 +7013,11 @@
         <v>0</v>
       </c>
       <c r="Q84" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C84,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C84,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R84" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C84,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C84,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S84" s="3" t="e">
@@ -6732,8 +7028,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V84" s="11"/>
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <f t="shared" si="13"/>
         <v>79</v>
@@ -6779,11 +7077,11 @@
         <v>0</v>
       </c>
       <c r="Q85" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C85,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C85,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R85" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C85,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C85,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S85" s="3" t="e">
@@ -6794,8 +7092,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V85" s="11"/>
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <f t="shared" si="13"/>
         <v>80</v>
@@ -6810,7 +7110,7 @@
         <v>162</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G86" s="3" t="b">
         <f t="shared" si="7"/>
@@ -6841,11 +7141,11 @@
         <v>0</v>
       </c>
       <c r="Q86" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C86,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C86,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R86" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C86,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C86,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S86" s="3" t="e">
@@ -6856,8 +7156,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="11"/>
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <f t="shared" si="13"/>
         <v>81</v>
@@ -6901,11 +7203,11 @@
         <v>0</v>
       </c>
       <c r="Q87" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C87,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C87,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R87" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C87,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C87,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S87" s="3" t="e">
@@ -6916,8 +7218,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V87" s="11"/>
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <f t="shared" si="13"/>
         <v>82</v>
@@ -6963,11 +7267,11 @@
         <v>#N/A</v>
       </c>
       <c r="Q88" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C88,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C88,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R88" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C88,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C88,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S88" s="3" t="e">
@@ -6978,8 +7282,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="11"/>
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <f t="shared" si="13"/>
         <v>83</v>
@@ -7025,11 +7331,11 @@
         <v>0</v>
       </c>
       <c r="Q89" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C89,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C89,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R89" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C89,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C89,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S89" s="3" t="e">
@@ -7040,8 +7346,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V89" s="11"/>
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <f t="shared" si="13"/>
         <v>84</v>
@@ -7087,11 +7395,11 @@
         <v>1</v>
       </c>
       <c r="Q90" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C90,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C90,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R90" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C90,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C90,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S90" s="3" t="e">
@@ -7102,8 +7410,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="11"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <f t="shared" si="13"/>
         <v>85</v>
@@ -7149,11 +7459,11 @@
         <v>1</v>
       </c>
       <c r="Q91" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C91,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C91,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R91" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C91,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C91,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S91" s="3" t="e">
@@ -7164,8 +7474,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="11"/>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <f t="shared" si="13"/>
         <v>86</v>
@@ -7211,11 +7523,11 @@
         <v>1</v>
       </c>
       <c r="Q92" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C92,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C92,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R92" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C92,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C92,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S92" s="3" t="e">
@@ -7226,8 +7538,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="11"/>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <f t="shared" si="13"/>
         <v>87</v>
@@ -7273,11 +7587,11 @@
         <v>0</v>
       </c>
       <c r="Q93" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C93,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C93,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R93" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C93,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C93,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S93" s="3" t="e">
@@ -7288,8 +7602,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="11"/>
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <f t="shared" si="13"/>
         <v>88</v>
@@ -7335,11 +7651,11 @@
         <v>1</v>
       </c>
       <c r="Q94" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C94,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C94,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R94" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C94,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C94,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S94" s="3" t="e">
@@ -7350,8 +7666,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="11"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <f t="shared" si="13"/>
         <v>89</v>
@@ -7397,11 +7715,11 @@
         <v>1</v>
       </c>
       <c r="Q95" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C95,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C95,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R95" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C95,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C95,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S95" s="3" t="e">
@@ -7412,8 +7730,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V95" s="11"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -7459,11 +7779,11 @@
         <v>1</v>
       </c>
       <c r="Q96" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C96,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C96,'SP1996'!C:C,0),1)</f>
         <v>45680</v>
       </c>
       <c r="R96" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C96,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C96,'SP1996'!C:C,0),1)</f>
         <v>0.85287528005974611</v>
       </c>
       <c r="S96" s="3">
@@ -7474,8 +7794,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="11"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <f t="shared" si="13"/>
         <v>91</v>
@@ -7521,11 +7843,11 @@
         <v>1</v>
       </c>
       <c r="Q97" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C97,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C97,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R97" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C97,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C97,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S97" s="3" t="e">
@@ -7536,8 +7858,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="11"/>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <f t="shared" si="13"/>
         <v>92</v>
@@ -7583,11 +7907,11 @@
         <v>1</v>
       </c>
       <c r="Q98" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C98,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C98,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R98" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C98,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C98,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S98" s="3" t="e">
@@ -7598,8 +7922,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="11"/>
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <f t="shared" si="13"/>
         <v>93</v>
@@ -7645,11 +7971,11 @@
         <v>1</v>
       </c>
       <c r="Q99" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C99,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C99,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R99" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C99,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C99,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S99" s="3" t="e">
@@ -7660,8 +7986,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="11"/>
+      <c r="X99" s="3"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <f t="shared" si="13"/>
         <v>94</v>
@@ -7707,11 +8035,11 @@
         <v>1</v>
       </c>
       <c r="Q100" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C100,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C100,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R100" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C100,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C100,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S100" s="3" t="e">
@@ -7722,8 +8050,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:21" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="V100" s="11"/>
+      <c r="X100" s="3"/>
+    </row>
+    <row r="101" spans="2:24" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <f t="shared" si="13"/>
         <v>95</v>
@@ -7769,11 +8099,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C101,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C101,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R101" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C101,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C101,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S101" s="3" t="e">
@@ -7784,8 +8114,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="11"/>
+      <c r="X101" s="3"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <f t="shared" si="13"/>
         <v>96</v>
@@ -7831,11 +8163,11 @@
         <v>1</v>
       </c>
       <c r="Q102" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C102,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C102,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R102" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C102,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C102,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S102" s="3" t="e">
@@ -7846,8 +8178,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V102" s="11"/>
+      <c r="X102" s="3"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <f t="shared" si="13"/>
         <v>97</v>
@@ -7893,11 +8227,11 @@
         <v>1</v>
       </c>
       <c r="Q103" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C103,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C103,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R103" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C103,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C103,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S103" s="3" t="e">
@@ -7908,8 +8242,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V103" s="11"/>
+      <c r="X103" s="3"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <f t="shared" si="13"/>
         <v>98</v>
@@ -7955,11 +8291,11 @@
         <v>1</v>
       </c>
       <c r="Q104" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C104,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C104,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R104" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C104,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C104,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S104" s="3" t="e">
@@ -7970,8 +8306,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V104" s="11"/>
+      <c r="X104" s="3"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <f t="shared" si="13"/>
         <v>99</v>
@@ -8017,11 +8355,11 @@
         <v>0</v>
       </c>
       <c r="Q105" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C105,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C105,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R105" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C105,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C105,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S105" s="3" t="e">
@@ -8032,8 +8370,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:21" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="V105" s="11"/>
+      <c r="X105" s="3"/>
+    </row>
+    <row r="106" spans="2:24" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <f t="shared" si="13"/>
         <v>100</v>
@@ -8079,11 +8419,11 @@
         <v>0</v>
       </c>
       <c r="Q106" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C106,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C106,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R106" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C106,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C106,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S106" s="3" t="e">
@@ -8094,8 +8434,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:21" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="V106" s="11"/>
+      <c r="X106" s="3"/>
+    </row>
+    <row r="107" spans="2:24" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <f t="shared" si="13"/>
         <v>101</v>
@@ -8141,11 +8483,11 @@
         <v>1</v>
       </c>
       <c r="Q107" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C107,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C107,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R107" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C107,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C107,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S107" s="3" t="e">
@@ -8156,8 +8498,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V107" s="11"/>
+      <c r="X107" s="3"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <f t="shared" si="13"/>
         <v>102</v>
@@ -8203,11 +8547,11 @@
         <v>1</v>
       </c>
       <c r="Q108" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C108,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C108,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R108" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C108,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C108,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S108" s="3" t="e">
@@ -8218,8 +8562,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V108" s="11"/>
+      <c r="X108" s="3"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <f t="shared" si="13"/>
         <v>103</v>
@@ -8265,11 +8611,11 @@
         <v>1</v>
       </c>
       <c r="Q109" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C109,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C109,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R109" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C109,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C109,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S109" s="3" t="e">
@@ -8280,8 +8626,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V109" s="11"/>
+      <c r="X109" s="3"/>
+    </row>
+    <row r="110" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <f t="shared" si="13"/>
         <v>104</v>
@@ -8327,11 +8675,11 @@
         <v>1</v>
       </c>
       <c r="Q110" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C110,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C110,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R110" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C110,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C110,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S110" s="3" t="e">
@@ -8342,8 +8690,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V110" s="11"/>
+      <c r="X110" s="3"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <f t="shared" si="13"/>
         <v>105</v>
@@ -8387,11 +8737,11 @@
         <v>0</v>
       </c>
       <c r="Q111" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C111,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C111,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R111" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C111,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C111,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S111" s="3" t="e">
@@ -8402,8 +8752,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V111" s="11"/>
+      <c r="X111" s="3"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <f t="shared" si="13"/>
         <v>106</v>
@@ -8447,11 +8799,11 @@
         <v>0</v>
       </c>
       <c r="Q112" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C112,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C112,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R112" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C112,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C112,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S112" s="3" t="e">
@@ -8462,8 +8814,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V112" s="11"/>
+      <c r="X112" s="3"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <f t="shared" si="13"/>
         <v>107</v>
@@ -8507,11 +8861,11 @@
         <v>0</v>
       </c>
       <c r="Q113" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C113,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C113,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R113" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C113,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C113,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S113" s="3" t="e">
@@ -8522,8 +8876,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V113" s="11"/>
+      <c r="X113" s="3"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <f t="shared" si="13"/>
         <v>108</v>
@@ -8567,11 +8923,11 @@
         <v>0</v>
       </c>
       <c r="Q114" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C114,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C114,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R114" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C114,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C114,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S114" s="3" t="e">
@@ -8582,8 +8938,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V114" s="11"/>
+      <c r="X114" s="3"/>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <f t="shared" si="13"/>
         <v>109</v>
@@ -8627,11 +8985,11 @@
         <v>0</v>
       </c>
       <c r="Q115" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C115,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C115,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R115" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C115,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C115,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S115" s="3" t="e">
@@ -8642,8 +9000,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V115" s="11"/>
+      <c r="X115" s="3"/>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <f t="shared" si="13"/>
         <v>110</v>
@@ -8687,11 +9047,11 @@
         <v>0</v>
       </c>
       <c r="Q116" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C116,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C116,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R116" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C116,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C116,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S116" s="3" t="e">
@@ -8702,8 +9062,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V116" s="11"/>
+      <c r="X116" s="3"/>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <f t="shared" si="13"/>
         <v>111</v>
@@ -8747,11 +9109,11 @@
         <v>0</v>
       </c>
       <c r="Q117" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C117,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C117,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R117" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C117,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C117,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S117" s="3" t="e">
@@ -8762,8 +9124,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V117" s="11"/>
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <f t="shared" si="13"/>
         <v>112</v>
@@ -8807,11 +9171,11 @@
         <v>0</v>
       </c>
       <c r="Q118" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C118,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C118,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R118" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C118,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C118,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S118" s="3" t="e">
@@ -8822,8 +9186,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V118" s="11"/>
+      <c r="X118" s="3"/>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <f t="shared" si="13"/>
         <v>113</v>
@@ -8867,11 +9233,11 @@
         <v>0</v>
       </c>
       <c r="Q119" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C119,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C119,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R119" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C119,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C119,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S119" s="3" t="e">
@@ -8882,8 +9248,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V119" s="11"/>
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <f t="shared" si="13"/>
         <v>114</v>
@@ -8927,11 +9295,11 @@
         <v>0</v>
       </c>
       <c r="Q120" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C120,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C120,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R120" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C120,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C120,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S120" s="3" t="e">
@@ -8942,8 +9310,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V120" s="11"/>
+      <c r="X120" s="3"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <f t="shared" si="13"/>
         <v>115</v>
@@ -8987,11 +9357,11 @@
         <v>0</v>
       </c>
       <c r="Q121" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C121,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C121,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R121" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C121,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C121,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S121" s="3" t="e">
@@ -9002,8 +9372,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V121" s="11"/>
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <f t="shared" si="13"/>
         <v>116</v>
@@ -9047,11 +9419,11 @@
         <v>0</v>
       </c>
       <c r="Q122" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C122,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C122,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R122" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C122,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C122,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S122" s="3" t="e">
@@ -9062,8 +9434,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V122" s="11"/>
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <f t="shared" si="13"/>
         <v>117</v>
@@ -9107,11 +9481,11 @@
         <v>0</v>
       </c>
       <c r="Q123" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C123,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C123,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R123" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C123,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C123,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S123" s="3" t="e">
@@ -9122,8 +9496,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V123" s="11"/>
+      <c r="X123" s="3"/>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <f t="shared" si="13"/>
         <v>118</v>
@@ -9167,11 +9543,11 @@
         <v>0</v>
       </c>
       <c r="Q124" s="11" t="e">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C124,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C124,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="R124" s="8" t="e">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C124,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C124,'SP1996'!C:C,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="S124" s="3" t="e">
@@ -9182,8 +9558,10 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V124" s="11"/>
+      <c r="X124" s="3"/>
+    </row>
+    <row r="125" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <f t="shared" si="13"/>
         <v>119</v>
@@ -9229,11 +9607,11 @@
         <v>1</v>
       </c>
       <c r="Q125" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C125,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C125,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R125" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C125,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C125,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S125" s="3">
@@ -9244,8 +9622,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V125" s="11"/>
+      <c r="X125" s="3"/>
+    </row>
+    <row r="126" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <f t="shared" si="13"/>
         <v>120</v>
@@ -9291,11 +9671,11 @@
         <v>1</v>
       </c>
       <c r="Q126" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C126,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C126,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R126" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C126,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C126,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S126" s="3">
@@ -9306,8 +9686,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V126" s="11"/>
+      <c r="X126" s="3"/>
+    </row>
+    <row r="127" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <f t="shared" si="13"/>
         <v>121</v>
@@ -9353,11 +9735,11 @@
         <v>1</v>
       </c>
       <c r="Q127" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C127,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C127,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R127" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C127,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C127,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S127" s="3">
@@ -9368,8 +9750,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V127" s="11"/>
+      <c r="X127" s="3"/>
+    </row>
+    <row r="128" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <f t="shared" si="13"/>
         <v>122</v>
@@ -9415,11 +9799,11 @@
         <v>1</v>
       </c>
       <c r="Q128" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C128,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C128,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R128" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C128,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C128,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S128" s="3">
@@ -9430,8 +9814,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V128" s="11"/>
+      <c r="X128" s="3"/>
+    </row>
+    <row r="129" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <f t="shared" si="13"/>
         <v>123</v>
@@ -9477,11 +9863,11 @@
         <v>1</v>
       </c>
       <c r="Q129" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C129,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C129,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R129" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C129,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C129,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S129" s="3">
@@ -9492,8 +9878,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V129" s="11"/>
+      <c r="X129" s="3"/>
+    </row>
+    <row r="130" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <f t="shared" si="13"/>
         <v>124</v>
@@ -9539,11 +9927,11 @@
         <v>1</v>
       </c>
       <c r="Q130" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C130,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C130,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R130" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C130,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C130,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S130" s="3">
@@ -9554,8 +9942,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V130" s="11"/>
+      <c r="X130" s="3"/>
+    </row>
+    <row r="131" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <f t="shared" si="13"/>
         <v>125</v>
@@ -9601,11 +9991,11 @@
         <v>1</v>
       </c>
       <c r="Q131" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C131,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C131,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R131" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C131,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C131,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S131" s="3">
@@ -9616,8 +10006,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V131" s="11"/>
+      <c r="X131" s="3"/>
+    </row>
+    <row r="132" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <f t="shared" si="13"/>
         <v>126</v>
@@ -9663,11 +10055,11 @@
         <v>1</v>
       </c>
       <c r="Q132" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C132,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C132,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R132" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C132,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C132,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S132" s="3">
@@ -9678,8 +10070,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V132" s="11"/>
+      <c r="X132" s="3"/>
+    </row>
+    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <f t="shared" si="13"/>
         <v>127</v>
@@ -9725,11 +10119,11 @@
         <v>1</v>
       </c>
       <c r="Q133" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C133,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C133,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R133" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C133,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C133,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S133" s="3">
@@ -9740,8 +10134,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V133" s="11"/>
+      <c r="X133" s="3"/>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <f t="shared" si="13"/>
         <v>128</v>
@@ -9787,11 +10183,11 @@
         <v>1</v>
       </c>
       <c r="Q134" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C134,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C134,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R134" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C134,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C134,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S134" s="3">
@@ -9802,8 +10198,10 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V134" s="11"/>
+      <c r="X134" s="3"/>
+    </row>
+    <row r="135" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <f t="shared" si="13"/>
         <v>129</v>
@@ -9849,11 +10247,11 @@
         <v>1</v>
       </c>
       <c r="Q135" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C135,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C135,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R135" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C135,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C135,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S135" s="3">
@@ -9864,8 +10262,10 @@
         <f t="shared" ref="U135:U164" si="19">IFERROR(O135*S135, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V135" s="11"/>
+      <c r="X135" s="3"/>
+    </row>
+    <row r="136" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <f t="shared" ref="B136:B164" si="20">B135+1</f>
         <v>130</v>
@@ -9911,11 +10311,11 @@
         <v>1</v>
       </c>
       <c r="Q136" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C136,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C136,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R136" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C136,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C136,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S136" s="3">
@@ -9926,8 +10326,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V136" s="11"/>
+      <c r="X136" s="3"/>
+    </row>
+    <row r="137" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <f t="shared" si="20"/>
         <v>131</v>
@@ -9973,11 +10375,11 @@
         <v>1</v>
       </c>
       <c r="Q137" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C137,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C137,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R137" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C137,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C137,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S137" s="3">
@@ -9988,8 +10390,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V137" s="11"/>
+      <c r="X137" s="3"/>
+    </row>
+    <row r="138" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <f t="shared" si="20"/>
         <v>132</v>
@@ -10035,11 +10439,11 @@
         <v>1</v>
       </c>
       <c r="Q138" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C138,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C138,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R138" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C138,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C138,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S138" s="3">
@@ -10050,8 +10454,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V138" s="11"/>
+      <c r="X138" s="3"/>
+    </row>
+    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <f t="shared" si="20"/>
         <v>133</v>
@@ -10097,11 +10503,11 @@
         <v>1</v>
       </c>
       <c r="Q139" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C139,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C139,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R139" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C139,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C139,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S139" s="3">
@@ -10112,8 +10518,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V139" s="11"/>
+      <c r="X139" s="3"/>
+    </row>
+    <row r="140" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <f t="shared" si="20"/>
         <v>134</v>
@@ -10159,11 +10567,11 @@
         <v>1</v>
       </c>
       <c r="Q140" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C140,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C140,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R140" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C140,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C140,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S140" s="3">
@@ -10174,8 +10582,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V140" s="11"/>
+      <c r="X140" s="3"/>
+    </row>
+    <row r="141" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <f t="shared" si="20"/>
         <v>135</v>
@@ -10221,11 +10631,11 @@
         <v>1</v>
       </c>
       <c r="Q141" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C141,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C141,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R141" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C141,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C141,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S141" s="3">
@@ -10236,8 +10646,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V141" s="11"/>
+      <c r="X141" s="3"/>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <f t="shared" si="20"/>
         <v>136</v>
@@ -10283,11 +10695,11 @@
         <v>1</v>
       </c>
       <c r="Q142" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C142,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C142,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R142" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C142,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C142,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S142" s="3">
@@ -10298,8 +10710,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V142" s="11"/>
+      <c r="X142" s="3"/>
+    </row>
+    <row r="143" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <f t="shared" si="20"/>
         <v>137</v>
@@ -10345,11 +10759,11 @@
         <v>1</v>
       </c>
       <c r="Q143" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C143,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C143,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R143" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C143,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C143,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S143" s="3">
@@ -10360,8 +10774,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V143" s="11"/>
+      <c r="X143" s="3"/>
+    </row>
+    <row r="144" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <f t="shared" si="20"/>
         <v>138</v>
@@ -10407,11 +10823,11 @@
         <v>1</v>
       </c>
       <c r="Q144" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C144,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C144,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R144" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C144,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C144,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S144" s="3">
@@ -10422,8 +10838,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V144" s="11"/>
+      <c r="X144" s="3"/>
+    </row>
+    <row r="145" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <f t="shared" si="20"/>
         <v>139</v>
@@ -10469,11 +10887,11 @@
         <v>1</v>
       </c>
       <c r="Q145" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C145,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C145,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R145" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C145,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C145,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S145" s="3">
@@ -10484,8 +10902,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V145" s="11"/>
+      <c r="X145" s="3"/>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <f t="shared" si="20"/>
         <v>140</v>
@@ -10531,11 +10951,11 @@
         <v>1</v>
       </c>
       <c r="Q146" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C146,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C146,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R146" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C146,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C146,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S146" s="3">
@@ -10546,8 +10966,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V146" s="11"/>
+      <c r="X146" s="3"/>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <f t="shared" si="20"/>
         <v>141</v>
@@ -10593,11 +11015,11 @@
         <v>1</v>
       </c>
       <c r="Q147" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C147,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C147,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R147" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C147,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C147,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S147" s="3">
@@ -10608,8 +11030,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V147" s="11"/>
+      <c r="X147" s="3"/>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <f t="shared" si="20"/>
         <v>142</v>
@@ -10655,11 +11079,11 @@
         <v>1</v>
       </c>
       <c r="Q148" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C148,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C148,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R148" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C148,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C148,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S148" s="3">
@@ -10670,8 +11094,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V148" s="11"/>
+      <c r="X148" s="3"/>
+    </row>
+    <row r="149" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <f t="shared" si="20"/>
         <v>143</v>
@@ -10717,11 +11143,11 @@
         <v>1</v>
       </c>
       <c r="Q149" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C149,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C149,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R149" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C149,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C149,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S149" s="3">
@@ -10732,8 +11158,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="V149" s="11"/>
+      <c r="X149" s="3"/>
+    </row>
+    <row r="150" spans="2:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <f t="shared" si="20"/>
         <v>144</v>
@@ -10779,11 +11207,11 @@
         <v>1</v>
       </c>
       <c r="Q150" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C150,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C150,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R150" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C150,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C150,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S150" s="3">
@@ -10794,8 +11222,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V150" s="11"/>
+      <c r="X150" s="3"/>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <f t="shared" si="20"/>
         <v>145</v>
@@ -10841,11 +11271,11 @@
         <v>1</v>
       </c>
       <c r="Q151" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C151,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C151,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R151" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C151,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C151,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S151" s="3">
@@ -10856,8 +11286,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="2:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="V151" s="11"/>
+      <c r="X151" s="3"/>
+    </row>
+    <row r="152" spans="2:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <f t="shared" si="20"/>
         <v>146</v>
@@ -10903,11 +11335,11 @@
         <v>1</v>
       </c>
       <c r="Q152" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C152,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C152,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R152" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C152,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C152,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S152" s="3">
@@ -10918,8 +11350,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V152" s="11"/>
+      <c r="X152" s="3"/>
+    </row>
+    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <f t="shared" si="20"/>
         <v>147</v>
@@ -10965,11 +11399,11 @@
         <v>1</v>
       </c>
       <c r="Q153" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C153,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C153,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R153" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C153,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C153,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S153" s="3">
@@ -10980,8 +11414,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V153" s="11"/>
+      <c r="X153" s="3"/>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <f t="shared" si="20"/>
         <v>148</v>
@@ -11027,11 +11463,11 @@
         <v>1</v>
       </c>
       <c r="Q154" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C154,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C154,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R154" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C154,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C154,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S154" s="3">
@@ -11042,8 +11478,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V154" s="11"/>
+      <c r="X154" s="3"/>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <f t="shared" si="20"/>
         <v>149</v>
@@ -11089,11 +11527,11 @@
         <v>1</v>
       </c>
       <c r="Q155" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C155,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C155,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R155" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C155,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C155,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S155" s="3">
@@ -11104,8 +11542,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V155" s="11"/>
+      <c r="X155" s="3"/>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <f t="shared" si="20"/>
         <v>150</v>
@@ -11151,11 +11591,11 @@
         <v>1</v>
       </c>
       <c r="Q156" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C156,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C156,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R156" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C156,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C156,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S156" s="3">
@@ -11166,8 +11606,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V156" s="11"/>
+      <c r="X156" s="3"/>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <f t="shared" si="20"/>
         <v>151</v>
@@ -11213,11 +11655,11 @@
         <v>1</v>
       </c>
       <c r="Q157" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C157,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C157,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R157" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C157,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C157,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S157" s="3">
@@ -11228,8 +11670,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V157" s="11"/>
+      <c r="X157" s="3"/>
+    </row>
+    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <f t="shared" si="20"/>
         <v>152</v>
@@ -11275,11 +11719,11 @@
         <v>1</v>
       </c>
       <c r="Q158" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C158,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C158,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R158" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C158,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C158,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S158" s="3">
@@ -11290,8 +11734,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V158" s="11"/>
+      <c r="X158" s="3"/>
+    </row>
+    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <f t="shared" si="20"/>
         <v>153</v>
@@ -11337,11 +11783,11 @@
         <v>1</v>
       </c>
       <c r="Q159" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C159,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C159,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R159" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C159,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C159,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S159" s="3">
@@ -11352,8 +11798,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V159" s="11"/>
+      <c r="X159" s="3"/>
+    </row>
+    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <f t="shared" si="20"/>
         <v>154</v>
@@ -11399,11 +11847,11 @@
         <v>1</v>
       </c>
       <c r="Q160" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C160,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C160,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R160" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C160,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C160,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S160" s="3">
@@ -11414,8 +11862,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V160" s="11"/>
+      <c r="X160" s="3"/>
+    </row>
+    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <f t="shared" si="20"/>
         <v>155</v>
@@ -11461,11 +11911,11 @@
         <v>1</v>
       </c>
       <c r="Q161" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C161,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C161,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R161" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C161,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C161,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S161" s="3">
@@ -11476,8 +11926,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V161" s="11"/>
+      <c r="X161" s="3"/>
+    </row>
+    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <f t="shared" si="20"/>
         <v>156</v>
@@ -11523,11 +11975,11 @@
         <v>1</v>
       </c>
       <c r="Q162" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C162,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C162,'SP1996'!C:C,0),1)</f>
         <v>53458</v>
       </c>
       <c r="R162" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C162,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C162,'SP1996'!C:C,0),1)</f>
         <v>0.99809559372666168</v>
       </c>
       <c r="S162" s="3">
@@ -11538,8 +11990,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V162" s="11"/>
+      <c r="X162" s="3"/>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <f t="shared" si="20"/>
         <v>157</v>
@@ -11585,11 +12039,11 @@
         <v>1</v>
       </c>
       <c r="Q163" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C163,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C163,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R163" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C163,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C163,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S163" s="3">
@@ -11600,8 +12054,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V163" s="11"/>
+      <c r="X163" s="3"/>
+    </row>
+    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <f t="shared" si="20"/>
         <v>158</v>
@@ -11647,11 +12103,11 @@
         <v>1</v>
       </c>
       <c r="Q164" s="11">
-        <f>INDEX('PE2004'!D:D,MATCH('Catalogo oficial'!C164,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!D:D,MATCH('Catalogo oficial'!C164,'SP1996'!C:C,0),1)</f>
         <v>53560</v>
       </c>
       <c r="R164" s="8">
-        <f>INDEX('PE2004'!F:F,MATCH('Catalogo oficial'!C164,'PE2004'!C:C,0),1)</f>
+        <f>INDEX('SP1996'!F:F,MATCH('Catalogo oficial'!C164,'SP1996'!C:C,0),1)</f>
         <v>1</v>
       </c>
       <c r="S164" s="3">
@@ -11662,8 +12118,10 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V164" s="11"/>
+      <c r="X164" s="3"/>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I165" s="3" t="s">
         <v>20</v>
       </c>
@@ -11676,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I166" s="3" t="s">
         <v>368</v>
       </c>
@@ -11689,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I167" s="3" t="s">
         <v>369</v>
       </c>
@@ -11702,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I168" s="3" t="s">
         <v>370</v>
       </c>
@@ -11715,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I169" s="3" t="s">
         <v>371</v>
       </c>
@@ -11772,7 +12230,7 @@
   <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B3:B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11851,8 +12309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15696,7 +16154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F118"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
